--- a/data/predictions/excel/draft_class_2019_predictions_ws_mean.xlsx
+++ b/data/predictions/excel/draft_class_2019_predictions_ws_mean.xlsx
@@ -58,229 +58,229 @@
     <t>RJ Barrett</t>
   </si>
   <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
     <t>Bruno Fernando</t>
   </si>
   <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
+    <t>Justin Wright-Foreman</t>
+  </si>
+  <si>
+    <t>Jarrett Culver</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Ja Morant</t>
+  </si>
+  <si>
+    <t>Dylan Windler</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
     <t>Carsen Edwards</t>
   </si>
   <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
     <t>Darius Garland</t>
   </si>
   <si>
-    <t>Justin Wright-Foreman</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Ja Morant</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
     <t>Tyler Herro</t>
   </si>
   <si>
-    <t>Dylan Windler</t>
-  </si>
-  <si>
-    <t>Jarrett Culver</t>
+    <t>Ignas Brazdeikis</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Nickeil Alexander-Walker</t>
+  </si>
+  <si>
+    <t>Tremont Waters</t>
   </si>
   <si>
     <t>Kyle Guy</t>
   </si>
   <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Ignas Brazdeikis</t>
-  </si>
-  <si>
     <t>Mfiondu Kabengele</t>
   </si>
   <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
     <t>Rui Hachimura</t>
   </si>
   <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
-    <t>Nickeil Alexander-Walker</t>
-  </si>
-  <si>
-    <t>Tremont Waters</t>
-  </si>
-  <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
-    <t>Coby White</t>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Eric Paschall</t>
+  </si>
+  <si>
+    <t>Quinndary Weatherspoon</t>
+  </si>
+  <si>
+    <t>Talen Horton-Tucker</t>
+  </si>
+  <si>
+    <t>Romeo Langford</t>
   </si>
   <si>
     <t>Terance Mann</t>
   </si>
   <si>
-    <t>Eric Paschall</t>
-  </si>
-  <si>
-    <t>Romeo Langford</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Talen Horton-Tucker</t>
-  </si>
-  <si>
-    <t>Quinndary Weatherspoon</t>
-  </si>
-  <si>
     <t>Justin James</t>
   </si>
   <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
     <t>Dewan Hernandez</t>
   </si>
   <si>
+    <t>Jordan Bone</t>
+  </si>
+  <si>
+    <t>Miye Oni</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Jalen McDaniels</t>
+  </si>
+  <si>
     <t>Jarrell Brantley</t>
   </si>
   <si>
-    <t>Jordan Bone</t>
-  </si>
-  <si>
-    <t>Jalen McDaniels</t>
-  </si>
-  <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
-    <t>Miye Oni</t>
+    <t>Marial Shayok</t>
+  </si>
+  <si>
+    <t>Isaiah Roby</t>
   </si>
   <si>
     <t>Cody Martin</t>
   </si>
   <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
-    <t>Marial Shayok</t>
-  </si>
-  <si>
     <t>Admiral Schofield</t>
   </si>
   <si>
-    <t>Isaiah Roby</t>
-  </si>
-  <si>
     <t>Duke</t>
   </si>
   <si>
     <t>Gonzaga</t>
   </si>
   <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
     <t>Maryland</t>
   </si>
   <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Hofstra</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
     <t>Purdue</t>
   </si>
   <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>Hofstra</t>
-  </si>
-  <si>
-    <t>Murray State</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Belmont</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
+    <t>Michigan</t>
   </si>
   <si>
     <t>UNC</t>
   </si>
   <si>
-    <t>Michigan</t>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>LSU</t>
   </si>
   <si>
     <t>Florida State</t>
   </si>
   <si>
-    <t>Virginia Tech</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
     <t>Villanova</t>
   </si>
   <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
     <t>Indiana</t>
   </si>
   <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>Mississippi State</t>
-  </si>
-  <si>
     <t>Wyoming</t>
   </si>
   <si>
     <t>Miami (FL)</t>
   </si>
   <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
     <t>College of Charleston</t>
   </si>
   <si>
-    <t>San Diego State</t>
-  </si>
-  <si>
-    <t>Yale</t>
+    <t>Nebraska</t>
   </si>
   <si>
     <t>Nevada</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>5.35</v>
       </c>
       <c r="F2">
-        <v>4.848503476321659</v>
+        <v>4.95929752626095</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>5.166666666666667</v>
       </c>
       <c r="F3">
-        <v>3.779057807512352</v>
+        <v>3.831569207990625</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -766,7 +766,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="F4">
-        <v>3.706596265687175</v>
+        <v>3.675324865399645</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -795,25 +795,25 @@
         <v>2019</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <v>1.75</v>
       </c>
       <c r="F5">
-        <v>3.360956709956711</v>
+        <v>3.127084286457387</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J5">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -830,28 +830,28 @@
         <v>2019</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>0.09999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="F6">
-        <v>3.218885172066993</v>
+        <v>3.09808363901642</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -865,28 +865,28 @@
         <v>2019</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="F7">
-        <v>3.020609515064061</v>
+        <v>3.094271965033491</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J7">
+        <v>25</v>
+      </c>
+      <c r="K7">
         <v>4</v>
-      </c>
-      <c r="K7">
-        <v>-8</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -900,28 +900,28 @@
         <v>2019</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="F8">
-        <v>2.855474025974024</v>
+        <v>2.978372352990441</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -935,28 +935,28 @@
         <v>2019</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E9">
-        <v>4.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2.854930495430495</v>
+        <v>2.868387521555973</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="J9">
-        <v>-4</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -970,28 +970,28 @@
         <v>2019</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>2.066666666666666</v>
+        <v>-0.03333333333333333</v>
       </c>
       <c r="F10">
-        <v>2.81224963924964</v>
+        <v>2.716193536943322</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -999,34 +999,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>2019</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="F11">
-        <v>2.798238751147843</v>
+        <v>2.574825012140472</v>
       </c>
       <c r="G11">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J11">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1034,34 +1034,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>2019</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0.9666666666666668</v>
+        <v>4.566666666666666</v>
       </c>
       <c r="F12">
-        <v>2.730482181118544</v>
+        <v>2.530400401888571</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="K12">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1075,28 +1075,28 @@
         <v>2019</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>4.566666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="F13">
-        <v>2.728974069701344</v>
+        <v>2.495462349262454</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J13">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1110,28 +1110,28 @@
         <v>2019</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="F14">
-        <v>2.622932966023876</v>
+        <v>2.442449567054736</v>
       </c>
       <c r="G14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1145,28 +1145,28 @@
         <v>2019</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>2.7</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="F15">
-        <v>2.605493506493507</v>
+        <v>2.434714096905588</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="K15">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1174,34 +1174,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>2019</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>2.366666666666667</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="F16">
-        <v>2.457800625300623</v>
+        <v>2.41484916908981</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16">
+        <v>37</v>
+      </c>
+      <c r="J16">
+        <v>22</v>
+      </c>
+      <c r="K16">
         <v>11</v>
-      </c>
-      <c r="J16">
-        <v>-4</v>
-      </c>
-      <c r="K16">
-        <v>-2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1209,34 +1209,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>2019</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>0.65</v>
+        <v>2.066666666666666</v>
       </c>
       <c r="F17">
-        <v>2.454809654991475</v>
+        <v>2.41025976454379</v>
       </c>
       <c r="G17">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1244,34 +1244,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>2019</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>-0.03333333333333333</v>
+        <v>2.366666666666667</v>
       </c>
       <c r="F18">
-        <v>2.407317635226725</v>
+        <v>2.35366480136384</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="J18">
-        <v>28</v>
+        <v>-6</v>
       </c>
       <c r="K18">
-        <v>39</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1279,34 +1279,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C19">
         <v>2019</v>
       </c>
       <c r="D19">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F19">
-        <v>2.38545928986838</v>
+        <v>2.284801832528789</v>
       </c>
       <c r="G19">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J19">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1314,7 +1314,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>2019</v>
@@ -1326,7 +1326,7 @@
         <v>3.633333333333333</v>
       </c>
       <c r="F20">
-        <v>2.337033320215137</v>
+        <v>2.174286017187711</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -1349,34 +1349,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>2019</v>
       </c>
       <c r="D21">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>0.08333333333333333</v>
+        <v>0.14</v>
       </c>
       <c r="F21">
-        <v>2.034642048187501</v>
+        <v>2.174076507264074</v>
       </c>
       <c r="G21">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
       <c r="I21">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J21">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1384,34 +1384,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22">
         <v>2019</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E22">
-        <v>0.15</v>
+        <v>5.551115123125783E-18</v>
       </c>
       <c r="F22">
-        <v>1.994531505531505</v>
+        <v>2.028948358040185</v>
       </c>
       <c r="G22">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
       <c r="I22">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J22">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K22">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1419,34 +1419,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>2019</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E23">
-        <v>1.766666666666667</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.967880711880712</v>
+        <v>2.011007830048372</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
       <c r="I23">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J23">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="K23">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1454,34 +1454,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C24">
         <v>2019</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3.1</v>
+        <v>0.15</v>
       </c>
       <c r="F24">
-        <v>1.901775766321221</v>
+        <v>1.961041329217104</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J24">
-        <v>-16</v>
+        <v>11</v>
       </c>
       <c r="K24">
-        <v>-17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1489,34 +1489,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C25">
         <v>2019</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>0.14</v>
+        <v>3.1</v>
       </c>
       <c r="F25">
-        <v>1.893123857623858</v>
+        <v>1.798749925639701</v>
       </c>
       <c r="G25">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
       <c r="I25">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J25">
-        <v>11</v>
+        <v>-17</v>
       </c>
       <c r="K25">
-        <v>19</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1524,34 +1524,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C26">
         <v>2019</v>
       </c>
       <c r="D26">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>5.551115123125783E-18</v>
+        <v>1.9</v>
       </c>
       <c r="F26">
-        <v>1.790988587170407</v>
+        <v>1.744485026358085</v>
       </c>
       <c r="G26">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J26">
-        <v>16</v>
+        <v>-8</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1559,34 +1559,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>2019</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>2.98</v>
+        <v>1.766666666666667</v>
       </c>
       <c r="F27">
-        <v>1.743027657527657</v>
+        <v>1.724261144649914</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J27">
-        <v>-18</v>
+        <v>-8</v>
       </c>
       <c r="K27">
-        <v>-21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1594,34 +1594,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <v>2019</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E28">
-        <v>1.9</v>
+        <v>2.98</v>
       </c>
       <c r="F28">
-        <v>1.687964886964888</v>
+        <v>1.706095513873475</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>-10</v>
+        <v>-19</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1629,34 +1629,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>2019</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>3.333333333333333</v>
+        <v>1.133333333333334</v>
       </c>
       <c r="F29">
-        <v>1.648775285320741</v>
+        <v>1.667714515520487</v>
       </c>
       <c r="G29">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J29">
-        <v>-22</v>
+        <v>-6</v>
       </c>
       <c r="K29">
-        <v>-30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1664,31 +1664,31 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C30">
         <v>2019</v>
       </c>
       <c r="D30">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>1.666666666666667</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="F30">
-        <v>1.589558922558922</v>
+        <v>1.521686002245044</v>
       </c>
       <c r="G30">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J30">
-        <v>-9</v>
+        <v>-17</v>
       </c>
       <c r="K30">
         <v>-11</v>
@@ -1699,34 +1699,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31">
         <v>2019</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E31">
-        <v>0.5599999999999999</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="F31">
-        <v>1.583671957671957</v>
+        <v>1.500386246188607</v>
       </c>
       <c r="G31">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
       <c r="I31">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J31">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="K31">
-        <v>14</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1734,31 +1734,31 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C32">
         <v>2019</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E32">
-        <v>1.133333333333334</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F32">
-        <v>1.47350937950938</v>
+        <v>1.448501617005177</v>
       </c>
       <c r="G32">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>31</v>
       </c>
       <c r="I32">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J32">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1781,7 +1781,7 @@
         <v>1.1</v>
       </c>
       <c r="F33">
-        <v>1.434181818181818</v>
+        <v>1.430141513011908</v>
       </c>
       <c r="G33">
         <v>34</v>
@@ -1810,28 +1810,28 @@
         <v>2019</v>
       </c>
       <c r="D34">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E34">
-        <v>0.06666666666666667</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="F34">
-        <v>1.408027898027897</v>
+        <v>1.425933440377672</v>
       </c>
       <c r="G34">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H34">
         <v>33</v>
       </c>
       <c r="I34">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J34">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1839,34 +1839,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>2019</v>
       </c>
       <c r="D35">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E35">
-        <v>0.1</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F35">
-        <v>1.399782718964538</v>
+        <v>1.394934279725754</v>
       </c>
       <c r="G35">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>34</v>
       </c>
       <c r="I35">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>-28</v>
       </c>
       <c r="K35">
-        <v>6</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1874,34 +1874,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C36">
         <v>2019</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E36">
-        <v>2.233333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="F36">
-        <v>1.349695832786741</v>
+        <v>1.391938318184287</v>
       </c>
       <c r="G36">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>35</v>
       </c>
       <c r="I36">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J36">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>-11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.306046416546417</v>
+        <v>1.295868009442355</v>
       </c>
       <c r="G37">
         <v>46</v>
@@ -1944,34 +1944,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C38">
         <v>2019</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E38">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="F38">
-        <v>1.269965980147798</v>
+        <v>1.243501327933091</v>
       </c>
       <c r="G38">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H38">
         <v>37</v>
       </c>
       <c r="I38">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J38">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K38">
-        <v>-6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1979,34 +1979,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <v>2019</v>
       </c>
       <c r="D39">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E39">
-        <v>0.05</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F39">
-        <v>1.144013468013468</v>
+        <v>1.186404928134345</v>
       </c>
       <c r="G39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H39">
         <v>38</v>
       </c>
       <c r="I39">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="K39">
-        <v>-4</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2014,34 +2014,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>2019</v>
       </c>
       <c r="D40">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>1.133333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="F40">
-        <v>1.002023088023088</v>
+        <v>1.135737610421378</v>
       </c>
       <c r="G40">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H40">
         <v>39</v>
       </c>
       <c r="I40">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J40">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="K40">
-        <v>-17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2049,34 +2049,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>2019</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E41">
-        <v>0.4</v>
+        <v>1.966666666666667</v>
       </c>
       <c r="F41">
-        <v>0.9234535834535831</v>
+        <v>1.043592708385785</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H41">
         <v>40</v>
       </c>
       <c r="I41">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J41">
-        <v>-11</v>
+        <v>-25</v>
       </c>
       <c r="K41">
-        <v>19</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2090,28 +2090,28 @@
         <v>2019</v>
       </c>
       <c r="D42">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E42">
-        <v>0.3333333333333333</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="F42">
-        <v>0.9233015873015874</v>
+        <v>1.008585775721346</v>
       </c>
       <c r="G42">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>41</v>
       </c>
       <c r="I42">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J42">
-        <v>-11</v>
+        <v>-18</v>
       </c>
       <c r="K42">
-        <v>-15</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2125,28 +2125,28 @@
         <v>2019</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="F43">
-        <v>0.8773783068783073</v>
+        <v>1.003962237376415</v>
       </c>
       <c r="G43">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>42</v>
       </c>
       <c r="I43">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J43">
-        <v>-28</v>
+        <v>-10</v>
       </c>
       <c r="K43">
-        <v>-14</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2154,34 +2154,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C44">
         <v>2019</v>
       </c>
       <c r="D44">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E44">
-        <v>1.966666666666667</v>
+        <v>-0.1</v>
       </c>
       <c r="F44">
-        <v>0.8621486291486289</v>
+        <v>0.960968352430201</v>
       </c>
       <c r="G44">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H44">
         <v>43</v>
       </c>
       <c r="I44">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J44">
-        <v>-28</v>
+        <v>3</v>
       </c>
       <c r="K44">
-        <v>-10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2189,34 +2189,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C45">
         <v>2019</v>
       </c>
       <c r="D45">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E45">
-        <v>-0.1</v>
+        <v>1.4</v>
       </c>
       <c r="F45">
-        <v>0.7932128427128423</v>
+        <v>0.8856866420862981</v>
       </c>
       <c r="G45">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>44</v>
       </c>
       <c r="I45">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>-23</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2224,34 +2224,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C46">
         <v>2019</v>
       </c>
       <c r="D46">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>0.7770389610389609</v>
+        <v>0.8560995117323327</v>
       </c>
       <c r="G46">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H46">
         <v>45</v>
       </c>
       <c r="I46">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J46">
-        <v>-12</v>
+        <v>-31</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2259,34 +2259,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>2019</v>
       </c>
       <c r="D47">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E47">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="F47">
-        <v>0.7641724386724388</v>
+        <v>0.8164128654875277</v>
       </c>
       <c r="G47">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>46</v>
       </c>
       <c r="I47">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J47">
-        <v>-25</v>
+        <v>-13</v>
       </c>
       <c r="K47">
-        <v>-12</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
